--- a/Entrega 4/Pruebas/GuardarExamen.xlsx
+++ b/Entrega 4/Pruebas/GuardarExamen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3052D6D-6784-45BF-A985-C76F5E029FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E6839-3D18-4BB7-B10E-6AFB938543FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Escenarios alternativos</t>
   </si>
@@ -40,6 +40,42 @@
   </si>
   <si>
     <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Todos los campos son llenados de forma correcta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El examen se almacena en el sistema </t>
+  </si>
+  <si>
+    <t>Numero preguntas invalido</t>
+  </si>
+  <si>
+    <t>Examen creado con éxito</t>
+  </si>
+  <si>
+    <t>Error: Numero de preguntas invalido</t>
+  </si>
+  <si>
+    <t>Se ingresa un numero invalido para el total de preguntas</t>
+  </si>
+  <si>
+    <t>Caracteres invalidos preguntas</t>
+  </si>
+  <si>
+    <t>Se ingresan caracteres especiales en el total de preguntas</t>
+  </si>
+  <si>
+    <t>Error: Ingresar un numero</t>
+  </si>
+  <si>
+    <t>Letras en numero de preguntas</t>
+  </si>
+  <si>
+    <t>Se escribren letas en el total de preguntas en vez de numeros</t>
+  </si>
+  <si>
+    <t>Error:Ingresar un numero</t>
   </si>
 </sst>
 </file>
@@ -110,9 +146,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -130,6 +163,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,7 +450,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,182 +462,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Entrega 4/Pruebas/GuardarExamen.xlsx
+++ b/Entrega 4/Pruebas/GuardarExamen.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E6839-3D18-4BB7-B10E-6AFB938543FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD82AA-1910-4123-A74B-43574723B204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Escenarios alternativos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -76,13 +75,163 @@
   </si>
   <si>
     <t>Error:Ingresar un numero</t>
+  </si>
+  <si>
+    <t>Nombre Examen Vacio</t>
+  </si>
+  <si>
+    <t>El campo del nombre se encuentra vacio</t>
+  </si>
+  <si>
+    <t>Error:El campo no puede estar vacio</t>
+  </si>
+  <si>
+    <t>Campo numero preguntas vacio</t>
+  </si>
+  <si>
+    <t>El campo del numero de preguntas se encuentra vacio</t>
+  </si>
+  <si>
+    <t>Dia Examen Vacio</t>
+  </si>
+  <si>
+    <t>El campo de Dia Examen se encuentra vacio</t>
+  </si>
+  <si>
+    <t>Dia examen no seleccionado</t>
+  </si>
+  <si>
+    <t>No se selecciona una fecha en el campo</t>
+  </si>
+  <si>
+    <t>Error:Favor de seleccionar una fecha</t>
+  </si>
+  <si>
+    <t>No se seleccionan materias</t>
+  </si>
+  <si>
+    <t>No se seleccionaron materias para el examen</t>
+  </si>
+  <si>
+    <t>Duracion del examen letras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se ingresaron letras en el campo de duracion </t>
+  </si>
+  <si>
+    <t>Error:Ingresa un valor valido</t>
+  </si>
+  <si>
+    <t>Duracion del examen especiales</t>
+  </si>
+  <si>
+    <t>Se ingresarn caracteres especiales en el campo duracion examen</t>
+  </si>
+  <si>
+    <t>Duracion examen vacio</t>
+  </si>
+  <si>
+    <t>No se ingreso un valor en el campo</t>
+  </si>
+  <si>
+    <t>Regresar al menu de edicion anterior</t>
+  </si>
+  <si>
+    <t>Al regresar al menu anterior no se borran los campos</t>
+  </si>
+  <si>
+    <t>Se regresa al menu anterior sin borrar la informacion</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>NumeroPreguntas</t>
+  </si>
+  <si>
+    <t>Duracion</t>
+  </si>
+  <si>
+    <t>Materias</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Se muestra un menu con la informacion ingresada</t>
+  </si>
+  <si>
+    <t>Antes de crear el examen aparece en pantalla un menu con los datos ingresados</t>
+  </si>
+  <si>
+    <t>Se muestra un menu previo a la creacion del examen</t>
+  </si>
+  <si>
+    <t>Despues de hacer click en "crear examen" se lleva al menu de edicion de preguntas</t>
+  </si>
+  <si>
+    <t>Edicion de preguntas</t>
+  </si>
+  <si>
+    <t>Se muestra el menu de edicion de preguntas</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se muestra el menu de edicion de preguntas </t>
+  </si>
+  <si>
+    <t>Escenarios</t>
+  </si>
+  <si>
+    <t>Casos de Prueba</t>
+  </si>
+  <si>
+    <t>Casos de Prueba (Datos</t>
+  </si>
+  <si>
+    <t>ExamenA</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>01|10|2020</t>
+  </si>
+  <si>
+    <t>Fecha Pasada</t>
+  </si>
+  <si>
+    <t>Se intenta seleccionar una fecha que ya paso</t>
+  </si>
+  <si>
+    <t>01|01|2000</t>
+  </si>
+  <si>
+    <t>Error:Ingresa una fecha valida</t>
+  </si>
+  <si>
+    <t>Estado Prueba</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>*-*</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +257,46 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,11 +319,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,14 +379,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,243 +717,1300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A4:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="4" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420B728-3699-442E-8751-D5A07F660E46}">
+  <dimension ref="B4:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="7"/>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="7"/>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="7"/>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="7"/>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="16"/>
+      <c r="C19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="16"/>
+      <c r="C20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312B98C8-A5F9-4ABD-B4E1-F7728B89B6CB}">
+  <dimension ref="B5:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="24">
+        <v>120</v>
+      </c>
+      <c r="I7" s="24">
+        <v>120</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="24">
+        <v>9999</v>
+      </c>
+      <c r="I8" s="24">
+        <v>120</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="24">
+        <v>120</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="23">
+        <v>4</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="24">
+        <v>120</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="25">
+        <v>5</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="24">
+        <v>120</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="25">
+        <v>6</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="24">
+        <v>120</v>
+      </c>
+      <c r="I12" s="24">
+        <v>120</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="25">
+        <v>7</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="24">
+        <v>120</v>
+      </c>
+      <c r="I13" s="24">
+        <v>120</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="25">
+        <v>8</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="24">
+        <v>120</v>
+      </c>
+      <c r="I14" s="24">
+        <v>120</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="25">
+        <v>9</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="24">
+        <v>120</v>
+      </c>
+      <c r="I15" s="24">
+        <v>120</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="25">
+        <v>10</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="24">
+        <v>120</v>
+      </c>
+      <c r="I16" s="24">
+        <v>120</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="25">
+        <v>11</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="24">
+        <v>120</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="25">
+        <v>12</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="24">
+        <v>120</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="23">
+        <v>13</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="24">
+        <v>120</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="23">
+        <v>14</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="24">
+        <v>120</v>
+      </c>
+      <c r="I20" s="24">
+        <v>120</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="27">
+        <v>15</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="24">
+        <v>120</v>
+      </c>
+      <c r="I21" s="24">
+        <v>120</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="27">
+        <v>16</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="24">
+        <v>120</v>
+      </c>
+      <c r="I22" s="24">
+        <v>120</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
